--- a/biology/Botanique/Geum_coccineum/Geum_coccineum.xlsx
+++ b/biology/Botanique/Geum_coccineum/Geum_coccineum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geum coccineum, communément appelée la Benoîte orangée, est une espèce de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace ornementale, qui forme une touffe.
 Les feuilles basales sont dressées, pennées et finement pubescentes, de 10 à 20 cm de long. Les folioles terminales sont réniformes, de 5 à 15 cm, plus grandes que les folioles latérales. Feuilles caulinaires profondément dentées mais non lobées.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire des Balkans et d'Asie mineure.
 			Fleur de Geum coccineum 'Cooky'
@@ -577,7 +593,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Geum borisii hort.</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il ne faut pas confondre Geum coccineum Sm. avec Geum coccineum hort.
 Il ne faut pas confondre Geum borisii hort. avec Geum ×borisii Kellerer ex Sünd.</t>
